--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340" tabRatio="500"/>
+    <workbookView windowWidth="15870" windowHeight="11475" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -479,6 +479,15 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>CodeGifts</t>
+  </si>
+  <si>
+    <t>CodeGift</t>
+  </si>
+  <si>
+    <t>CodeGift.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1517,13 +1526,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="20.4" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.1166666666667" style="2" customWidth="1"/>
@@ -1650,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="b">
-        <f>TRUE()</f>
+        <f t="shared" ref="D4:D8" si="0">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1665,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="2" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1680,7 +1689,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="2" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1695,7 +1704,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="2" t="b">
-        <f>TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1703,6 +1712,21 @@
       </c>
       <c r="H7" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiweiwen/Desktop/git/server/moon_server_demo/Luban/Datas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EB6446-3BC0-9D4A-B021-A6A855CAA925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="11475" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22320" windowHeight="11480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -63,6 +79,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>全名</t>
@@ -72,7 +89,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -81,6 +98,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>包含模块和名字</t>
@@ -90,7 +108,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -104,6 +122,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>从</t>
@@ -113,7 +132,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>excel</t>
     </r>
@@ -122,6 +141,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>读取定义</t>
@@ -136,6 +156,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>表</t>
@@ -145,7 +166,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -154,6 +175,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>字段</t>
@@ -180,7 +202,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>false</t>
     </r>
@@ -189,6 +211,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>时取已有定义，</t>
@@ -198,7 +221,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>true</t>
     </r>
@@ -207,6 +230,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>为从</t>
@@ -216,7 +240,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>excel</t>
     </r>
@@ -225,6 +249,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>标题头和属性栏读取定义</t>
@@ -236,6 +261,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>可以多个，以逗号</t>
@@ -245,7 +271,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>','</t>
     </r>
@@ -254,6 +280,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>分隔</t>
@@ -265,6 +292,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>为空的话自动取</t>
@@ -274,7 +302,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>value_type</t>
     </r>
@@ -283,6 +311,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>中第一个字段</t>
@@ -292,7 +321,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -301,6 +330,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>多主键联合索引为</t>
@@ -310,7 +340,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>key1+key2,</t>
     </r>
@@ -319,6 +349,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>多主键独立索引为</t>
@@ -328,7 +359,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>"key1,key2"</t>
     </r>
@@ -339,6 +370,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>取值</t>
@@ -348,7 +380,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>one|map|list</t>
     </r>
@@ -357,6 +389,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>，为空自动为</t>
@@ -366,7 +399,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>map</t>
     </r>
@@ -377,6 +410,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>取值</t>
@@ -386,7 +420,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>c|s|e</t>
     </r>
@@ -395,6 +429,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>，可以有多个，以逗号</t>
@@ -404,7 +439,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>','</t>
     </r>
@@ -413,6 +448,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>分隔。空则表示属于所有分组</t>
@@ -427,6 +463,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">默认为 </t>
@@ -436,7 +473,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
     </r>
@@ -488,19 +525,24 @@
   </si>
   <si>
     <t>CodeGift.xlsx</t>
+  </si>
+  <si>
+    <t>TaskConfig</t>
+  </si>
+  <si>
+    <t>TaskConfig.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskConfigs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -511,172 +553,30 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,194 +589,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -884,244 +598,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,68 +611,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Good 1" xfId="1" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="Excel Built-in Good 1" xfId="46"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1263,6 +698,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1520,71 +958,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1166666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.05" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.3916666666667" style="2" customWidth="1"/>
-    <col min="6" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.3833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1614,19 +1052,19 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1641,97 +1079,112 @@
       <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="b">
-        <f t="shared" ref="D4:D8" si="0">TRUE()</f>
+      <c r="D4" t="b">
+        <f t="shared" ref="D4:D9" si="0">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:13">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:13">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="b">
+      <c r="D6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="b">
+      <c r="D7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2" t="b">
+      <c r="D8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>